--- a/Classification.xlsx
+++ b/Classification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\资料\全国大学生电子设计竞赛\历年赛题\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\robot\project\NUEDC_Topic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E0FE4F-DB86-4266-891F-908E1D030168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6767AD6-2387-47A9-9929-825371389C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23172" yWindow="0" windowWidth="23004" windowHeight="12924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>A_简易数控直流电源</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -341,6 +341,209 @@
   </si>
   <si>
     <t>F_调幅信号处理实验电路</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_电流信号检测装置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_灭火飞行器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C题目重点其实在无线充电，有点介于电源与控制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_无线话筒扩音系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_简易数字信号时序分析装置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_手势识别
+H_简易功率测量装置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_无线充电电动小车
+E_能量回收装置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_电动小车动态无线充电系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_巡线机器人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A题和去年的C情况类似
+F题介于测控与仪器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_基于互联网的信号传输系统
+G_双路语音同传的无线收发系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_纸张计数显示装置
+H_模拟电磁曲射炮
+I_LED线阵显示装置
+J_模拟电磁曲射炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_线路负载及故障检测装置
+D_简易电路特性测试仪
+K_简易多功能液体容器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_单相在线式不间断电源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_坡道行驶电动小车</t>
+  </si>
+  <si>
+    <t>D_绕障飞行器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_ 放大器非线性失真研究装置</t>
+  </si>
+  <si>
+    <t>F_简易无接触温度测量与身份识别装置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_无线运动传感器节点设计
+G_非接触物体尺寸形态测量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_三相AC-DC变换电路
+C_三端口DC-DC变换器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_数字-模拟信号混合传输收发机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_植保飞行器</t>
+  </si>
+  <si>
+    <t>H_用电器分析识别装置</t>
+  </si>
+  <si>
+    <t>F_智能送药小车
+I_具有发电功能的储能小车</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_信号失真度测量装置
+J_周期信号波形识别及参数测量装置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_基于互联网的摄像测量系统
+K_照度稳定可调LED台灯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>I题：控制+电源
+K题不太清楚分类，类似于“小电器”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_送货无人机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_混沌信号发生器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_信号调制度测量装置</t>
+  </si>
+  <si>
+    <t>C_小车跟随行驶系统
+H_小车跟随行驶系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_单相交流电子负载
+G_单相交流负载模拟单元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_声源定位跟踪系统
+I_声源定位跟踪系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A题、G题不太清楚分类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_单相逆变器并联运行系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_同轴电缆长度与终端负载检测装置
+C_电感电容测量装置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_空地协同智能消防系统</t>
+  </si>
+  <si>
+    <t>D_信号调制方式识别与参数估计装置
+H_信号分离装置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_运动目标控制与自动追踪系统
+I_气垫悬浮车</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_基于声传播的智能定位系统
+J_线路故障自动检测系统
+K_辨音识键奏乐系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A题_AC-AC变换电路并联运行</t>
+  </si>
+  <si>
+    <t>B题_单相功率分析仪</t>
+  </si>
+  <si>
+    <t>C题_无线传输信号模拟系统</t>
+  </si>
+  <si>
+    <t>D题_立体货架盘点无人机系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>G题_简易录音屏蔽系统</t>
+  </si>
+  <si>
+    <t>E题_三子棋游戏装置
+F题_磁悬浮实验装置
+H题_自动行驶小车</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -934,10 +1137,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1261,296 +1473,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="30.625" style="1"/>
+    <col min="6" max="6" width="30.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="30.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="J1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1994</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1995</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1997</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>1999</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>2001</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2003</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>2005</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>2007</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>2009</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>2011</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>2013</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>2015</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>2017</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J19:K19"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
